--- a/18 financial/self_cycle周期.xlsx
+++ b/18 financial/self_cycle周期.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23460" windowHeight="9900" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="方法" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>EPS变大，PE逐渐的减少，股价持续的新高</t>
+  </si>
+  <si>
+    <t>在市盈率低，估值低的时候卖出；市盈率高，估值高的时候买入。
+1 需要一个行业的标的，如中集集团，就可以拿航运标的波罗的海干散货运价指数；而有色金属公司的话就可以拿有色金属指数对标
+2 参考标的的周期，如石油的周期是三十年
+3 参考标的的波动范围
+4 研究这一年公司的估值，看这年的估值相对于参考标的最惨淡的时候的比值是多少 一般120%就可以建仓</t>
+  </si>
+  <si>
+    <t>估值低，市盈率低的时候，公司盈利达到顶峰了，但公司的股价没能上升那么快，也有很多投资周期类的老手已经估计到公司的盈利达到顶峰，往往在上升的时候出货；反过来在高估值、高市盈率的时候，也就是公司的盈利跌到谷底了。周期类行业风险很大，很多情况无法判断一个周期的长短</t>
   </si>
   <si>
     <t>行业指数即可，至少时间持续在一年以上，距离最高点下跌 50%以上，PB 是一个很好的指标，EV/EBITDA 也是一个很好的度量标准。只有在这些标准都低于平均值一半的前提下，才有分析研究的必要。</t>
@@ -77,8 +87,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -103,33 +113,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,29 +129,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,6 +150,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -201,18 +173,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,7 +199,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,6 +212,43 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -255,97 +265,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,79 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,44 +450,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -511,6 +483,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -540,6 +530,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -548,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,133 +570,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -701,12 +711,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -716,7 +720,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1066,43 +1076,68 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="15" max="15" width="48.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="34" customHeight="1" spans="1:22">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="4" customFormat="1" ht="34" customHeight="1" spans="1:22">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" ht="117" customHeight="1" spans="1:15">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1123,7 +1158,7 @@
   <sheetData>
     <row r="1" ht="63" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1139,7 +1174,7 @@
     </row>
     <row r="2" ht="62" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1155,7 +1190,7 @@
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1171,7 +1206,7 @@
     </row>
     <row r="4" ht="67" customHeight="1" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1187,7 +1222,7 @@
     </row>
     <row r="5" ht="110" customHeight="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1444,7 +1479,7 @@
   <sheetPr/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N$1:N$1048576"/>
     </sheetView>
   </sheetViews>
@@ -1455,23 +1490,23 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1487,7 +1522,7 @@
     </row>
     <row r="3" ht="62" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1502,24 +1537,24 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:12">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
+      <c r="A4" s="3" t="s">
+        <v>11</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" ht="116" customHeight="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1535,7 +1570,7 @@
     </row>
     <row r="6" ht="113" customHeight="1" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1801,7 +1836,7 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1820,7 +1855,7 @@
     </row>
     <row r="2" ht="57" customHeight="1" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1839,7 +1874,7 @@
     </row>
     <row r="3" ht="48" customHeight="1" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>

--- a/18 financial/self_cycle周期.xlsx
+++ b/18 financial/self_cycle周期.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23475" windowHeight="9900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="方法" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>EPS变大，PE逐渐的减少，股价持续的新高</t>
+    <t xml:space="preserve">1 商品预期上涨，有人囤货；预期过高实际没跟上导致的预期差反而会导致暴跌（谨慎预期过高）
+2 商品价格上涨，一般股价落后于商品。EPS变大，PE逐渐的减少，股价持续的新高
+3 公司盈利阶段，业绩快速兑现，全行亏损到全行鼎盛。典型的特点是：EPS继续增加达到上一轮景气的高点甚至更高，PE逐渐的靠近上轮高点，股价仍旧会持续的上涨，但是这个时候要小心提防景气周期随时可能结束。
+</t>
   </si>
   <si>
     <t>在市盈率低，估值低的时候卖出；市盈率高，估值高的时候买入。
@@ -700,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,9 +724,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1078,8 +1078,8 @@
   <sheetPr/>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1087,7 +1087,7 @@
     <col min="15" max="15" width="48.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="34" customHeight="1" spans="1:22">
+    <row r="1" s="4" customFormat="1" ht="57" customHeight="1" spans="1:22">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1113,24 +1113,24 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" ht="117" customHeight="1" spans="1:15">
+    <row r="2" ht="88" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1150,13 +1150,13 @@
   <sheetPr/>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="63" customHeight="1" spans="1:12">
+    <row r="1" ht="39" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>

--- a/18 financial/self_cycle周期.xlsx
+++ b/18 financial/self_cycle周期.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23475" windowHeight="9900" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="方法" sheetId="1" r:id="rId1"/>
@@ -23,16 +23,6 @@
 2 商品价格上涨，一般股价落后于商品。EPS变大，PE逐渐的减少，股价持续的新高
 3 公司盈利阶段，业绩快速兑现，全行亏损到全行鼎盛。典型的特点是：EPS继续增加达到上一轮景气的高点甚至更高，PE逐渐的靠近上轮高点，股价仍旧会持续的上涨，但是这个时候要小心提防景气周期随时可能结束。
 </t>
-  </si>
-  <si>
-    <t>在市盈率低，估值低的时候卖出；市盈率高，估值高的时候买入。
-1 需要一个行业的标的，如中集集团，就可以拿航运标的波罗的海干散货运价指数；而有色金属公司的话就可以拿有色金属指数对标
-2 参考标的的周期，如石油的周期是三十年
-3 参考标的的波动范围
-4 研究这一年公司的估值，看这年的估值相对于参考标的最惨淡的时候的比值是多少 一般120%就可以建仓</t>
-  </si>
-  <si>
-    <t>估值低，市盈率低的时候，公司盈利达到顶峰了，但公司的股价没能上升那么快，也有很多投资周期类的老手已经估计到公司的盈利达到顶峰，往往在上升的时候出货；反过来在高估值、高市盈率的时候，也就是公司的盈利跌到谷底了。周期类行业风险很大，很多情况无法判断一个周期的长短</t>
   </si>
   <si>
     <t>行业指数即可，至少时间持续在一年以上，距离最高点下跌 50%以上，PB 是一个很好的指标，EV/EBITDA 也是一个很好的度量标准。只有在这些标准都低于平均值一半的前提下，才有分析研究的必要。</t>
@@ -65,6 +55,13 @@
     <t>具体指标1：大多数周期股投资者关注的是销售净利率低、每股销售额大、财务杠杆高、产能扩张完成投产，说到底就是个股业绩的弹性大。
 优点：一旦遇到上升周期往往可以一飞冲天，
 缺点：就是如果周期看错或者是周期超出预期的话，往往面临着很大的经营风险。</t>
+  </si>
+  <si>
+    <t>研究这一年公司的估值，看这年的估值相对于参考标的最惨淡的时候的比值是多少 一般120%就可以建仓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">估值低，市盈率低的时候，公司盈利达到顶峰了，但公司的股价没能上升那么快，也有很多投资周期类的老手已经估计到公司的盈利达到顶峰，往往在上升的时候出货；反过来在高估值、高市盈率的时候，也就是公司的盈利跌到谷底了。周期类行业风险很大，很多情况无法判断一个周期的长短
+</t>
   </si>
   <si>
     <t>具体指标2：比较稳健关注点：成本相比较而言是否足够低、资产是否足以支撑公司稳健经营、销售收入是否稳步提升。
@@ -703,7 +700,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,16 +714,13 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1076,19 +1070,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N2"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="15" max="15" width="48.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="57" customHeight="1" spans="1:22">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="5" customFormat="1" ht="57" customHeight="1" spans="1:22">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -1113,31 +1107,9 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" ht="88" customHeight="1" spans="1:15">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1150,15 +1122,15 @@
   <sheetPr/>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1174,7 +1146,7 @@
     </row>
     <row r="2" ht="62" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1190,7 +1162,7 @@
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1206,7 +1178,7 @@
     </row>
     <row r="4" ht="67" customHeight="1" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1222,7 +1194,7 @@
     </row>
     <row r="5" ht="110" customHeight="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1477,20 +1449,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N$1:N$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="13" max="13" width="33.375" customWidth="1"/>
+    <col min="13" max="13" width="74.25" customWidth="1"/>
+    <col min="14" max="14" width="41.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1506,7 +1479,7 @@
     </row>
     <row r="2" ht="63" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1522,7 +1495,7 @@
     </row>
     <row r="3" ht="62" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1538,7 +1511,7 @@
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1552,9 +1525,9 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" ht="116" customHeight="1" spans="1:12">
+    <row r="5" ht="116" customHeight="1" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1567,6 +1540,12 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
+      <c r="M5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" ht="113" customHeight="1" spans="1:12">
       <c r="A6" s="1" t="s">
